--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manilacel/Library/CloudStorage/OneDrive-RoyalCaribbeanGroup/PMT/Git/RestructuredScript/pmt_katalon_local/Data Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k602p\Katalon Studio\PMT-GATEWAY-KATALON\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B463E074-5771-B94A-942F-33819A1E4EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFC4EF0-5B7F-4C48-9D08-26A5322B6826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ByCountryAndCurrency" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
   <si>
     <t>TCDescription</t>
   </si>
@@ -225,6 +225,20 @@
   <si>
     <t>xxx</t>
   </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>{
+  "validationMessage": "The cardNumber specified did not pass mod10 check or is invalid format."
+}</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>errorCode": "PY-1501"</t>
+  </si>
 </sst>
 </file>
 
@@ -259,13 +273,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,16 +569,16 @@
       <selection activeCell="C4" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -584,7 +601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -607,7 +624,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -630,7 +647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -653,7 +670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -686,28 +703,28 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:I6"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.6640625" customWidth="1"/>
-    <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -725,21 +742,21 @@
       <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -754,21 +771,21 @@
       <c r="G2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="H2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -783,21 +800,21 @@
       <c r="G3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -812,21 +829,21 @@
       <c r="G4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -841,21 +858,21 @@
       <c r="G5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -870,10 +887,10 @@
       <c r="G6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="4" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k602p\Katalon Studio\PMT-GATEWAY-KATALON\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFC4EF0-5B7F-4C48-9D08-26A5322B6826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB975C2-4A0B-4BF1-8443-FAC250BF42CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ByCountryAndCurrency" sheetId="1" r:id="rId1"/>
+    <sheet name="Validations_ByCtryOrCurr" sheetId="1" r:id="rId1"/>
     <sheet name="GiftCards" sheetId="2" r:id="rId2"/>
+    <sheet name="cardTokenization_Encrypt" sheetId="3" r:id="rId3"/>
+    <sheet name="ScheduledPayment_Get" sheetId="4" r:id="rId4"/>
+    <sheet name="ScheduledPayment_Add" sheetId="5" r:id="rId5"/>
+    <sheet name="ScheduledPayment_GetEligibility" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,14 +30,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="94">
   <si>
     <t>TCDescription</t>
   </si>
   <si>
-    <t>TestCaseId</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -55,36 +56,12 @@
     <t>Negative</t>
   </si>
   <si>
-    <t>Valid Inputs for USA</t>
-  </si>
-  <si>
-    <t>Valid Inputs for CAN</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
     <t>CAD</t>
   </si>
   <si>
-    <t>Invalid Inputs</t>
-  </si>
-  <si>
     <t>AAA</t>
   </si>
   <si>
-    <t>BBB</t>
-  </si>
-  <si>
-    <t>Valid Inputs for AUS</t>
-  </si>
-  <si>
-    <t>AUS</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
     <t>ContainsValidation</t>
   </si>
   <si>
@@ -92,63 +69,6 @@
   </si>
   <si>
     <t>"errorCode": "PY-0702"</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>{
-  "cards": [
-    {
-      "code": "JC",
-      "description": "Japan Credit Bureau"
-    },
-    {
-      "code": "MC",
-      "description": "Mastercard"
-    },
-    {
-      "code": "DS",
-      "description": "Discover"
-    },
-    {
-      "code": "DC",
-      "description": "Diners Club"
-    },
-    {
-      "code": "VA",
-      "description": "Visa"
-    },
-    {
-      "code": "AX",
-      "description": "American Express"
-    }
-  ],
-  "applePay": {
-    "cards": [
-      {
-        "code": "JC",
-        "description": "Japan Credit Bureau"
-      },
-      {
-        "code": "MC",
-        "description": "Mastercard"
-      },
-      {
-        "code": "DS",
-        "description": "Discover"
-      },
-      {
-        "code": "DC",
-        "description": "Diners Club"
-      },
-      {
-        "code": "VA",
-        "description": "Visa"
-      }
-    ]
-  }
-}</t>
   </si>
   <si>
     <t>TCNumber</t>
@@ -238,14 +158,522 @@
   </si>
   <si>
     <t>errorCode": "PY-1501"</t>
+  </si>
+  <si>
+    <t>encryptedCard</t>
+  </si>
+  <si>
+    <t>4012000077777777</t>
+  </si>
+  <si>
+    <t>"validationMessage": "Card number did not pass mod10 check or is in invalid format."</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>TestScenarioNumber</t>
+  </si>
+  <si>
+    <t>TestCaseType</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ExecuteBookingCreationFlag</t>
+  </si>
+  <si>
+    <t>BookingId</t>
+  </si>
+  <si>
+    <t>ADDRequest</t>
+  </si>
+  <si>
+    <t>CreateBookingRequest</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>ScheduledPayment</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>Celebrity-PartialPayment</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>{
+  "bookingId": "BookingId",
+  "channel": "CELEBRITY_WEB",
+  "currencyCode": "USD",
+  "payments": [
+    {
+      "cardInfo": {
+        "token": "4387750107931111",
+        "expirationMonth": "12",
+        "expirationYear": "2027",
+        "cardholderName": "TestMH TestMH",
+        "billingAddress": {
+          "lineOne": "12345 HM Street",
+          "lineTwo": "",
+          "city": "NL",
+          "state": "CL",
+          "zipCode": "12345",
+          "countryCode": "USA"
+        }
+      },
+      "paymentSchedule": [
+        {
+          "action": "ADD",
+          "scheduleDate": "20240704",
+          "totalAmount": "10.00"
+        }
+      ]
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "header": {
+    "application": "celebritycriuses.com",
+    "brand": "${Brand}",
+    "domainId": "6",
+    "language": "en_US"
+  },
+  "countryCode": "USA",
+  "sailingInfo": {
+    "shipCode": "${ShipCode}",
+    "sailDate": "${SailDate}",
+    "packageCode": "${PackageId}",
+    "currencyCode": "USD"
+  },
+  "reservations": [
+    {
+      "cabin": {
+        "berthedCategoryCode": "${CategoryCode}",
+        "fareCode": "BESTRATE",
+        "pricedCategoryCode": "${CategoryCode}",
+        "waitListed": "false",
+        "accessible": "false",
+        "number": "${CabinNumber}"
+      },
+      "dining": [
+        {
+          "sitting": "O",
+          "sittingType": "OPEN",
+          "sittingInstance": "CEL SELECT"
+        }
+      ],
+      "gratuitiesPrepaid": "false",
+      "insurance": {
+        "code": "CRCR",
+        "optionIndicator": "false"
+      },
+      "fareQualifiers": {
+        "seniorReqd": "false",
+        "militaryReqd": "false",
+        "policeReqd": "false",
+        "fireFighterReqd": "false"
+      },
+      "guestDetails": [
+        {
+          "guestContact": {
+            "guestRefNumber": "0",
+            "personalInfo": {
+              "name": {
+                "title": "MS",
+                "firstName": "ESL One",
+                "lastName": "Tester"
+              },
+              "age": "55",
+              "birthDate": "1960-05-13",
+              "gender": "F",
+              "nationality": "USA"
+            },
+            "address": {
+              "address1": "addr1",
+              "city": "Miramar",
+              "stateCode": "FL",
+              "postalCode": "33029",
+              "countryName": "USA"
+            },
+            "email": "eslqa@rccl.com"
+          }
+        },
+        {
+          "guestContact": {
+            "guestRefNumber": "1",
+            "personalInfo": {
+              "name": {
+                "title": "MR",
+                "firstName": "ESL Two",
+                "lastName": "Tester"
+              },
+              "age": "55",
+              "birthDate": "1960-05-13",
+              "gender": "M",
+              "nationality": "USA"
+            },
+            "address": {
+              "address1": "addr1",
+              "city": "Miramar",
+              "stateCode": "NA",
+              "postalCode": "33029",
+              "countryName": "USA"
+            },
+            "email": "eslqa@rccl.com"
+          }
+        }
+      ],
+            "listOfCardPayments": {
+        "cardPayment": [
+          {
+            "cardType": "VA",
+            "cardToken": "4387751111111111",
+            "expireDate": "1230",
+            "amount": "100",
+            "currency": "USD",
+            "cvv": "123",
+            "extendPayments": "false",
+            "contact": {
+              "firstName": "ESL QA",
+              "lastName": "Tester",
+              "address": {
+                "address1": "ADDRESS",
+                "city": "CITY",
+                "stateCode": "FLL",
+                "postalCode": "33019",
+                "countryCode": "USA",
+                "countryName": "USA"
+              }
+            }
+          }
+        ]
+      }
+    }
+  ],
+  "courtesyHold": "true"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	SELECT
+		SMBRND, 
+		SMSHIP, 
+		SUBSTR(ICSLMD.SMSDDT, 0, 0) || '20' || SUBSTR(ICSLMD.SMSDDT, 2, 2)|| '-' || SUBSTR(ICSLMD.SMSDDT, 4, 2)|| '-' || SUBSTR(ICSLMD.SMSDDT, 6, 2) AS SMSDDT, 
+		BHPKID,
+		CBCTCD, 
+		CBCBNO
+	FROM 
+		ICSLMD 
+	  	JOIN ICVCBD ON ICSLMD.SMSHIP = ICVCBD.CBSHIP AND ICSLMD.SMSDDT = ICVCBD.CBSDDT
+	  	JOIN ICPKGD ON ICSLMD.SMITCD = ICPKGD.BHITCD
+	 WHERE 
+	 	SMBRND = 'C'
+		AND SMSDDT &gt; Cast(Substr(Replace(Char(CURDATE() + 6 MONTH, ISO), '-', ''), 1) as Dec(8, 0))-19000000
+		AND ICVCBD.CBSTAT = 'AVL'
+		AND CBCBNO != 'GTY'
+		AND CBCABC = '2'
+		AND CBHNDA = ''
+		AND SMDSCD = 'O'
+		AND SMRSFG = 'Y'
+		AND SMINAF = 'Y'
+		AND SMSTAT != 'CX'
+	ORDER BY SMSDDT 
+		FETCH FIRST ROW ONLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Royal-PartialPayment</t>
+  </si>
+  <si>
+    <t>{
+  "bookingId": "BookingId",
+  "channel": "ROYAL_WEB",
+  "currencyCode": "USD",
+  "payments": [
+    {
+      "cardInfo": {
+        "token": "4387750107931111",
+        "expirationMonth": "12",
+        "expirationYear": "2027",
+        "cardholderName": "TestMH TestMH",
+        "billingAddress": {
+          "lineOne": "12345 HM Street",
+          "lineTwo": "",
+          "city": "NL",
+          "state": "CL",
+          "zipCode": "12345",
+          "countryCode": "USA"
+        }
+      },
+      "paymentSchedule": [
+        {
+          "action": "ADD",
+          "scheduleDate": "20240704",
+          "totalAmount": "10.00"
+        }
+      ]
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "header": {
+    "application": "royalcaribbean.com",
+    "brand": "${Brand}",
+    "domainId": "1",
+    "language": "en_US"
+  },
+  "countryCode": "USA",
+  "sailingInfo": {
+    "shipCode": "${ShipCode}",
+    "sailDate": "${SailDate}",
+    "packageCode": "${PackageId}",
+    "currencyCode": "USD"
+  },
+  "reservations": [
+    {
+      "cabin": {
+        "berthedCategoryCode": "${CategoryCode}",
+        "fareCode": "BESTRATE",
+        "pricedCategoryCode": "${CategoryCode}",
+        "waitListed": "false",
+        "accessible": "false",
+        "number": "${CabinNumber}"
+      },
+      "dining": [
+        {
+          "sitting": "O",
+          "sittingType": "OPEN",
+          "sittingInstance": "MY TIME"
+        }
+      ],
+      "gratuitiesPrepaid": "false",
+      "insurance": {
+        "code": "CRCR",
+        "optionIndicator": "false"
+      },
+      "fareQualifiers": {
+        "seniorReqd": "false",
+        "militaryReqd": "false",
+        "policeReqd": "false",
+        "fireFighterReqd": "false"
+      },
+      "guestDetails": [
+        {
+          "guestContact": {
+            "guestRefNumber": "0",
+            "personalInfo": {
+              "name": {
+                "title": "MS",
+                "firstName": "ESL One",
+                "lastName": "Tester"
+              },
+              "age": "55",
+              "birthDate": "1960-05-13",
+              "gender": "F",
+              "nationality": "USA"
+            },
+            "address": {
+              "address1": "addr1",
+              "city": "Miramar",
+              "stateCode": "FL",
+              "postalCode": "33029",
+              "countryName": "USA"
+            },
+            "email": "eslqa@rccl.com"
+          }
+        },
+        {
+          "guestContact": {
+            "guestRefNumber": "1",
+            "personalInfo": {
+              "name": {
+                "title": "MR",
+                "firstName": "ESL Two",
+                "lastName": "Tester"
+              },
+              "age": "55",
+              "birthDate": "1960-05-13",
+              "gender": "M",
+              "nationality": "USA"
+            },
+            "address": {
+              "address1": "addr1",
+              "city": "Miramar",
+              "stateCode": "NA",
+              "postalCode": "33029",
+              "countryName": "USA"
+            },
+            "email": "eslqa@rccl.com"
+          }
+        }
+      ],
+            "listOfCardPayments": {
+        "cardPayment": [
+          {
+            "cardType": "VA",
+            "cardToken": "4387751111111111",
+            "expireDate": "1230",
+            "amount": "100",
+            "currency": "USD",
+            "cvv": "123",
+            "extendPayments": "false",
+            "contact": {
+              "firstName": "ESL QA",
+              "lastName": "Tester",
+              "address": {
+                "address1": "ADDRESS",
+                "city": "CITY",
+                "stateCode": "FLL",
+                "postalCode": "33019",
+                "countryCode": "USA",
+                "countryName": "USA"
+              }
+            }
+          }
+        ]
+      }
+    }
+  ],
+  "courtesyHold": "true"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	SELECT
+		SMBRND, 
+		SMSHIP, 
+		SUBSTR(ICSLMD.SMSDDT, 0, 0) || '20' || SUBSTR(ICSLMD.SMSDDT, 2, 2)|| '-' || SUBSTR(ICSLMD.SMSDDT, 4, 2)|| '-' || SUBSTR(ICSLMD.SMSDDT, 6, 2) AS SMSDDT, 
+		BHPKID,
+		CBCTCD, 
+		CBCBNO
+	FROM 
+		ICSLMD 
+	  	JOIN ICVCBD ON ICSLMD.SMSHIP = ICVCBD.CBSHIP AND ICSLMD.SMSDDT = ICVCBD.CBSDDT
+	  	JOIN ICPKGD ON ICSLMD.SMITCD = ICPKGD.BHITCD
+	 WHERE 
+	 	SMBRND = 'R'
+		AND SMSDDT &gt; Cast(Substr(Replace(Char(CURDATE() + 6 MONTH, ISO), '-', ''), 1) as Dec(8, 0))-19000000
+		AND ICVCBD.CBSTAT = 'AVL'
+		AND CBCBNO != 'GTY'
+		AND CBCABC = '2'
+		AND CBHNDA = ''
+		AND SMDSCD = 'O'
+		AND SMRSFG = 'Y'
+		AND SMINAF = 'Y'
+		AND SMSTAT != 'CX'
+	ORDER BY SMSDDT 
+		FETCH FIRST ROW ONLY</t>
+  </si>
+  <si>
+    <t>BookingId = 0</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>BookingId = Blank</t>
+  </si>
+  <si>
+    <t>BookingId = more than 7 digit</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>BookingId = negative number</t>
+  </si>
+  <si>
+    <t>-12345</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Old booking with existing scheduled payment</t>
+  </si>
+  <si>
+    <t>259960</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>BookingId = letters</t>
+  </si>
+  <si>
+    <t>ABCDE</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>"isEligible": true</t>
+  </si>
+  <si>
+    <t>"isEligible": true,</t>
+  </si>
+  <si>
+    <t>You must enter a valid booking ID having numeric string between 1 and 9999999, inclusive.</t>
+  </si>
+  <si>
+    <t>Validations</t>
+  </si>
+  <si>
+    <t>PrevalidationsByCtryOrCurr</t>
+  </si>
+  <si>
+    <t>USA-USD</t>
+  </si>
+  <si>
+    <t>cards</t>
+  </si>
+  <si>
+    <t>USA-CAD</t>
+  </si>
+  <si>
+    <t>USA-Invalid currency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -273,14 +701,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -563,136 +992,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C3:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-    </row>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -702,196 +1126,196 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DE72FD-B2DC-F14E-AE74-63292B6A77A1}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="H4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>34</v>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -900,4 +1324,872 @@
     <ignoredError sqref="E2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D880AB4-1DE7-5946-BE4F-6F640D35FE1D}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B3E2DA-9933-4B77-A7B4-7C59CEE54D22}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="47.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09718EF1-5D75-4972-9395-ACB737900D96}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7BA175-0D7F-4BBD-B4FF-9DB63624C036}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k602p\Katalon Studio\PMT-GATEWAY-KATALON\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rccl-my.sharepoint.com/personal/charmainejaneelduayan_rcclapac_com/Documents/PMT/Git/RestructuredScript/TestingFolder/pmt_katalon_local/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB975C2-4A0B-4BF1-8443-FAC250BF42CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{FBB975C2-4A0B-4BF1-8443-FAC250BF42CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87DDBE98-B768-2940-9792-4027BC481C4B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validations_ByCtryOrCurr" sheetId="1" r:id="rId1"/>
     <sheet name="GiftCards" sheetId="2" r:id="rId2"/>
     <sheet name="cardTokenization_Encrypt" sheetId="3" r:id="rId3"/>
-    <sheet name="ScheduledPayment_Get" sheetId="4" r:id="rId4"/>
-    <sheet name="ScheduledPayment_Add" sheetId="5" r:id="rId5"/>
-    <sheet name="ScheduledPayment_GetEligibility" sheetId="6" r:id="rId6"/>
+    <sheet name="cardTokenization_Generate" sheetId="7" r:id="rId4"/>
+    <sheet name="ScheduledPayment_Get" sheetId="4" r:id="rId5"/>
+    <sheet name="ScheduledPayment_Add" sheetId="5" r:id="rId6"/>
+    <sheet name="ScheduledPayment_GetEligibility" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="96">
   <si>
     <t>TCDescription</t>
   </si>
@@ -659,6 +660,12 @@
   <si>
     <t>USA-Invalid currency</t>
   </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>"validationMessage": "The cardNumber specified did not pass mod10 check or is invalid format."</t>
+  </si>
 </sst>
 </file>
 
@@ -727,6 +734,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -992,27 +1003,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
@@ -1038,7 +1049,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>88</v>
       </c>
@@ -1064,7 +1075,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
@@ -1090,7 +1101,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>88</v>
       </c>
@@ -1116,7 +1127,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1127,24 +1137,24 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="A1:XFD1048576"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1173,7 +1183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -1202,7 +1212,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1231,7 +1241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1260,7 +1270,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1289,7 +1299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -1328,26 +1338,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D880AB4-1DE7-5946-BE4F-6F640D35FE1D}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1361,19 +1369,13 @@
         <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -1386,20 +1388,14 @@
       <c r="D2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1412,16 +1408,10 @@
       <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1431,6 +1421,162 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE581428-E8A0-8946-864F-922BD2565CB2}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B3E2DA-9933-4B77-A7B4-7C59CEE54D22}">
   <dimension ref="A1:K9"/>
   <sheetViews>
@@ -1438,23 +1584,23 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="47.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="26.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="26.83203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>45</v>
       </c>
@@ -1489,7 +1635,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>56</v>
       </c>
@@ -1524,7 +1670,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -1559,7 +1705,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>56</v>
       </c>
@@ -1594,7 +1740,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>56</v>
       </c>
@@ -1629,7 +1775,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>56</v>
       </c>
@@ -1664,7 +1810,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>56</v>
       </c>
@@ -1699,7 +1845,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>56</v>
       </c>
@@ -1734,7 +1880,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>56</v>
       </c>
@@ -1774,7 +1920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09718EF1-5D75-4972-9395-ACB737900D96}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -1782,20 +1928,20 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
@@ -1821,7 +1967,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -1847,7 +1993,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
@@ -1878,7 +2024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7BA175-0D7F-4BBD-B4FF-9DB63624C036}">
   <dimension ref="A1:J9"/>
   <sheetViews>
@@ -1886,22 +2032,22 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="26" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
@@ -1933,7 +2079,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -1965,7 +2111,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
@@ -1997,7 +2143,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -2029,7 +2175,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -2061,7 +2207,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
@@ -2093,7 +2239,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
@@ -2125,7 +2271,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -2157,7 +2303,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>

--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rccl-my.sharepoint.com/personal/charmainejaneelduayan_rcclapac_com/Documents/PMT/Git/RestructuredScript/TestingFolder/pmt_katalon_local/Data Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k602p\Katalon Studio\PMT-GATEWAY-KATALON\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{FBB975C2-4A0B-4BF1-8443-FAC250BF42CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87DDBE98-B768-2940-9792-4027BC481C4B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1694E977-BA10-4750-9953-3E721AFEAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Validations_ByCtryOrCurr" sheetId="1" r:id="rId1"/>
-    <sheet name="GiftCards" sheetId="2" r:id="rId2"/>
-    <sheet name="cardTokenization_Encrypt" sheetId="3" r:id="rId3"/>
-    <sheet name="cardTokenization_Generate" sheetId="7" r:id="rId4"/>
-    <sheet name="ScheduledPayment_Get" sheetId="4" r:id="rId5"/>
-    <sheet name="ScheduledPayment_Add" sheetId="5" r:id="rId6"/>
-    <sheet name="ScheduledPayment_GetEligibility" sheetId="6" r:id="rId7"/>
+    <sheet name="GiftCards" sheetId="2" r:id="rId1"/>
+    <sheet name="cardTokenization_Encrypt" sheetId="3" r:id="rId2"/>
+    <sheet name="cardTokenization_Generate" sheetId="8" r:id="rId3"/>
+    <sheet name="ScheduledPayment_Get" sheetId="4" r:id="rId4"/>
+    <sheet name="ScheduledPayment_Add" sheetId="5" r:id="rId5"/>
+    <sheet name="ScheduledPayment_GetEligibility" sheetId="6" r:id="rId6"/>
+    <sheet name="Validations_Prevalidations&amp;Conf" sheetId="7" r:id="rId7"/>
+    <sheet name="Validations_ByCtryOrCurr" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="105">
   <si>
     <t>TCDescription</t>
   </si>
@@ -661,6 +662,38 @@
     <t>USA-Invalid currency</t>
   </si>
   <si>
+    <t>GET_ELIGIBILITY</t>
+  </si>
+  <si>
+    <t>Prevalidations&amp;Conf</t>
+  </si>
+  <si>
+    <t>Old booking</t>
+  </si>
+  <si>
+    <t>{
+  "errorCode": "PY-0701",
+  "errorMessage": "The request body did not pass input validation."
+}</t>
+  </si>
+  <si>
+    <t>{
+  "validationMessage": "The booking ID must be numeric."
+}</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>BookingId = existing booking + letter</t>
+  </si>
+  <si>
+    <t>259960A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
     <t>token</t>
   </si>
   <si>
@@ -734,10 +767,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1002,159 +1031,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DE72FD-B2DC-F14E-AE74-63292B6A77A1}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1183,7 +1081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -1212,7 +1110,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1241,7 +1139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1270,7 +1168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1299,7 +1197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -1336,26 +1234,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D880AB4-1DE7-5946-BE4F-6F640D35FE1D}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1375,7 +1273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -1395,7 +1293,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1413,6 +1311,162 @@
       </c>
       <c r="F3" s="3" t="s">
         <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723A855F-829B-4B5D-8211-25823ECB6C26}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1421,154 +1475,342 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE581428-E8A0-8946-864F-922BD2565CB2}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B3E2DA-9933-4B77-A7B4-7C59CEE54D22}">
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="47.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
+      <c r="E2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>94</v>
+      <c r="E6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1577,350 +1819,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B3E2DA-9933-4B77-A7B4-7C59CEE54D22}">
-  <dimension ref="A1:K9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="47.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="26.83203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09718EF1-5D75-4972-9395-ACB737900D96}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -1928,20 +1826,20 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
@@ -1967,7 +1865,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -1993,7 +1891,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
@@ -2017,6 +1915,322 @@
       </c>
       <c r="H3" s="1" t="s">
         <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7BA175-0D7F-4BBD-B4FF-9DB63624C036}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2025,29 +2239,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7BA175-0D7F-4BBD-B4FF-9DB63624C036}">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE63EE0-2DBC-4407-96FB-89B2379A96F6}">
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="26" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
@@ -2079,12 +2293,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>38</v>
@@ -2108,15 +2322,15 @@
         <v>62</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>24</v>
@@ -2140,15 +2354,15 @@
         <v>67</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>29</v>
@@ -2172,15 +2386,15 @@
         <v>71</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>31</v>
@@ -2195,7 +2409,7 @@
         <v>69</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>71</v>
@@ -2204,15 +2418,15 @@
         <v>71</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>35</v>
@@ -2236,15 +2450,15 @@
         <v>71</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>75</v>
@@ -2268,15 +2482,15 @@
         <v>71</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>78</v>
@@ -2285,7 +2499,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>69</v>
@@ -2300,15 +2514,15 @@
         <v>71</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>81</v>
@@ -2332,9 +2546,173 @@
         <v>71</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k602p\Katalon Studio\PMT-GATEWAY-KATALON\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rccl-my.sharepoint.com/personal/charmainejaneelduayan_rcclapac_com/Documents/PMT/Git/RestructuredScript/TestingFolder/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1694E977-BA10-4750-9953-3E721AFEAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{1694E977-BA10-4750-9953-3E721AFEAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E1225BA-B918-5B43-88B0-E65A84584EE4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GiftCards" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="ScheduledPayment_GetEligibility" sheetId="6" r:id="rId6"/>
     <sheet name="Validations_Prevalidations&amp;Conf" sheetId="7" r:id="rId7"/>
     <sheet name="Validations_ByCtryOrCurr" sheetId="1" r:id="rId8"/>
+    <sheet name="Wallet_Add" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="105">
   <si>
     <t>TCDescription</t>
   </si>
@@ -1038,21 +1039,21 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1081,7 +1082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -1110,7 +1111,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1139,7 +1140,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1168,7 +1169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1197,7 +1198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -1242,18 +1243,18 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,7 +1274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -1293,7 +1294,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1326,20 +1327,20 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1365,7 +1366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -1391,7 +1392,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1417,7 +1418,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,7 +1444,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1478,27 +1479,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B3E2DA-9933-4B77-A7B4-7C59CEE54D22}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="47.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="26.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="26.83203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>45</v>
       </c>
@@ -1533,7 +1534,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>56</v>
       </c>
@@ -1568,7 +1569,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -1603,7 +1604,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>56</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>56</v>
       </c>
@@ -1673,7 +1674,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>56</v>
       </c>
@@ -1708,7 +1709,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>56</v>
       </c>
@@ -1743,7 +1744,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>56</v>
       </c>
@@ -1778,7 +1779,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>56</v>
       </c>
@@ -1826,20 +1827,20 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
@@ -1865,7 +1866,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -1891,7 +1892,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
@@ -1930,22 +1931,22 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="26" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
@@ -1977,7 +1978,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -2009,7 +2010,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
@@ -2041,7 +2042,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -2073,7 +2074,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -2105,7 +2106,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
@@ -2137,7 +2138,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,7 +2170,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -2201,7 +2202,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -2246,22 +2247,22 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="26" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
@@ -2293,7 +2294,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>88</v>
       </c>
@@ -2325,7 +2326,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
@@ -2357,7 +2358,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>88</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>88</v>
       </c>
@@ -2421,7 +2422,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
@@ -2453,7 +2454,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
@@ -2485,7 +2486,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>88</v>
       </c>
@@ -2517,7 +2518,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>88</v>
       </c>
@@ -2549,7 +2550,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
@@ -2588,27 +2589,27 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
@@ -2634,7 +2635,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>88</v>
       </c>
@@ -2660,7 +2661,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
@@ -2686,7 +2687,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>88</v>
       </c>
@@ -2712,7 +2713,137 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F02EF3-E80B-894D-87F6-2117279164FC}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rccl-my.sharepoint.com/personal/charmainejaneelduayan_rcclapac_com/Documents/PMT/Git/RestructuredScript/TestingFolder/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{1694E977-BA10-4750-9953-3E721AFEAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E1225BA-B918-5B43-88B0-E65A84584EE4}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{1694E977-BA10-4750-9953-3E721AFEAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8243BE92-D61C-674C-9149-E9CFE1A7C4EA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="15840" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GiftCards" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="Validations_Prevalidations&amp;Conf" sheetId="7" r:id="rId7"/>
     <sheet name="Validations_ByCtryOrCurr" sheetId="1" r:id="rId8"/>
     <sheet name="Wallet_Add" sheetId="9" r:id="rId9"/>
+    <sheet name="Wallet_Replace" sheetId="10" r:id="rId10"/>
+    <sheet name="Wallet_Update" sheetId="11" r:id="rId11"/>
+    <sheet name="Wallet_Delete" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="120">
   <si>
     <t>TCDescription</t>
   </si>
@@ -700,6 +703,51 @@
   <si>
     <t>"validationMessage": "The cardNumber specified did not pass mod10 check or is invalid format."</t>
   </si>
+  <si>
+    <t>cardholderName</t>
+  </si>
+  <si>
+    <t>defaultPaymentMethod</t>
+  </si>
+  <si>
+    <t>4754802333406253</t>
+  </si>
+  <si>
+    <t>CC-2224</t>
+  </si>
+  <si>
+    <t>nickName</t>
+  </si>
+  <si>
+    <t>Commander Cody</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>paymentMethod</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>PY-0401</t>
+  </si>
+  <si>
+    <t>idToBeReplaced</t>
+  </si>
+  <si>
+    <t>PY-0402</t>
+  </si>
+  <si>
+    <t>Payment Already Exist</t>
+  </si>
+  <si>
+    <t>errorCode</t>
+  </si>
+  <si>
+    <t>Either card number or token is required</t>
+  </si>
 </sst>
 </file>
 
@@ -768,6 +816,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1235,12 +1287,455 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48459B2C-EE78-4646-A73A-554FA75BC79A}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="41.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="L5" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22F0CD2-7E13-4747-A8F3-299BFC59F5E0}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="41.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="L5" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C96469-A5D6-3348-9B82-7D1CB15C18C4}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="41.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="L5" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D880AB4-1DE7-5946-BE4F-6F640D35FE1D}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1324,7 +1819,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1824,7 +2319,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2720,129 +3215,156 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F02EF3-E80B-894D-87F6-2117279164FC}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="41.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="L5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rccl-my.sharepoint.com/personal/charmainejaneelduayan_rcclapac_com/Documents/PMT/Git/RestructuredScript/TestingFolder/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{1694E977-BA10-4750-9953-3E721AFEAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8243BE92-D61C-674C-9149-E9CFE1A7C4EA}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:1_{1694E977-BA10-4750-9953-3E721AFEAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29DF176A-9474-6A47-B586-05C93B0D7588}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="15840" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GiftCards" sheetId="2" r:id="rId1"/>
-    <sheet name="cardTokenization_Encrypt" sheetId="3" r:id="rId2"/>
-    <sheet name="cardTokenization_Generate" sheetId="8" r:id="rId3"/>
-    <sheet name="ScheduledPayment_Get" sheetId="4" r:id="rId4"/>
-    <sheet name="ScheduledPayment_Add" sheetId="5" r:id="rId5"/>
-    <sheet name="ScheduledPayment_GetEligibility" sheetId="6" r:id="rId6"/>
-    <sheet name="Validations_Prevalidations&amp;Conf" sheetId="7" r:id="rId7"/>
-    <sheet name="Validations_ByCtryOrCurr" sheetId="1" r:id="rId8"/>
-    <sheet name="Wallet_Add" sheetId="9" r:id="rId9"/>
-    <sheet name="Wallet_Replace" sheetId="10" r:id="rId10"/>
-    <sheet name="Wallet_Update" sheetId="11" r:id="rId11"/>
-    <sheet name="Wallet_Delete" sheetId="12" r:id="rId12"/>
+    <sheet name="Payment_Authorize" sheetId="13" r:id="rId2"/>
+    <sheet name="cardTokenization_Encrypt" sheetId="3" r:id="rId3"/>
+    <sheet name="cardTokenization_Generate" sheetId="8" r:id="rId4"/>
+    <sheet name="ScheduledPayment_Get" sheetId="4" r:id="rId5"/>
+    <sheet name="ScheduledPayment_Add" sheetId="5" r:id="rId6"/>
+    <sheet name="ScheduledPayment_GetEligibility" sheetId="6" r:id="rId7"/>
+    <sheet name="Validations_Prevalidations&amp;Conf" sheetId="7" r:id="rId8"/>
+    <sheet name="Validations_ByCtryOrCurr" sheetId="1" r:id="rId9"/>
+    <sheet name="Wallet_Add" sheetId="9" r:id="rId10"/>
+    <sheet name="Wallet_Replace" sheetId="10" r:id="rId11"/>
+    <sheet name="Wallet_Update" sheetId="11" r:id="rId12"/>
+    <sheet name="Wallet_Delete" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="155">
   <si>
     <t>TCDescription</t>
   </si>
@@ -747,6 +748,231 @@
   </si>
   <si>
     <t>Either card number or token is required</t>
+  </si>
+  <si>
+    <t>paymentChannel</t>
+  </si>
+  <si>
+    <t>ROYAL_WEB</t>
+  </si>
+  <si>
+    <t>orderId</t>
+  </si>
+  <si>
+    <t>7a4a85db-2fee-4026-b967-0e3aeff7e357</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>CRUISE_BOOKING</t>
+  </si>
+  <si>
+    <t>intent</t>
+  </si>
+  <si>
+    <t>AUTHORIZE</t>
+  </si>
+  <si>
+    <t>bookingId</t>
+  </si>
+  <si>
+    <t>passengerId</t>
+  </si>
+  <si>
+    <t>officeCode</t>
+  </si>
+  <si>
+    <t>countryCode</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>cvv</t>
+  </si>
+  <si>
+    <t>cardholder</t>
+  </si>
+  <si>
+    <t>addressOne</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>CARD</t>
+  </si>
+  <si>
+    <t>4387750107931111</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Obi-Wan</t>
+  </si>
+  <si>
+    <t>Obi-Wan's hut</t>
+  </si>
+  <si>
+    <t>Jundland Wastes</t>
+  </si>
+  <si>
+    <t>TW</t>
+  </si>
+  <si>
+    <t>33027</t>
+  </si>
+  <si>
+    <t>{
+  "header": {
+    "application": "celebritycriuses.com",
+    "brand": "${Brand}",
+    "domainId": "6",
+    "language": "en_US"
+  },
+  "countryCode": "USA",
+  "sailingInfo": {
+    "shipCode": "${ShipCode}",
+    "sailDate": "${SailDate}",
+    "packageCode": "${PackageId}",
+    "currencyCode": "USD"
+  },
+  "reservations": [
+    {
+      "cabin": {
+        "berthedCategoryCode": "${CategoryCode}",
+        "fareCode": "BESTRATE",
+        "pricedCategoryCode": "${CategoryCode}",
+        "waitListed": "false",
+        "accessible": "false",
+        "number": "${CabinNumber}"
+      },
+      "dining": [
+        {
+          "sitting": "O",
+          "sittingType": "OPEN",
+          "sittingInstance": "CEL SELECT"
+        }
+      ],
+      "gratuitiesPrepaid": "false",
+      "insurance": {
+        "code": "CRCR",
+        "optionIndicator": "false"
+      },
+      "fareQualifiers": {
+        "seniorReqd": "false",
+        "militaryReqd": "false",
+        "policeReqd": "false",
+        "fireFighterReqd": "false"
+      },
+      "guestDetails": [
+        {
+          "guestContact": {
+            "guestRefNumber": "0",
+            "personalInfo": {
+              "name": {
+                "title": "MS",
+                "firstName": "ESL One",
+                "lastName": "Tester"
+              },
+              "age": "55",
+              "birthDate": "1960-05-13",
+              "gender": "F",
+              "nationality": "USA"
+            },
+            "address": {
+              "address1": "addr1",
+              "city": "Miramar",
+              "stateCode": "FL",
+              "postalCode": "33029",
+              "countryName": "USA"
+            },
+            "email": "eslqa@rccl.com"
+          }
+        },
+        {
+          "guestContact": {
+            "guestRefNumber": "1",
+            "personalInfo": {
+              "name": {
+                "title": "MR",
+                "firstName": "ESL Two",
+                "lastName": "Tester"
+              },
+              "age": "55",
+              "birthDate": "1960-05-13",
+              "gender": "M",
+              "nationality": "USA"
+            },
+            "address": {
+              "address1": "addr1",
+              "city": "Miramar",
+              "stateCode": "NA",
+              "postalCode": "33029",
+              "countryName": "USA"
+            },
+            "email": "eslqa@rccl.com"
+          }
+        }
+      ],
+            "listOfCardPayments": {
+        "cardPayment": [
+          {
+            "cardType": "VA",
+            "cardToken": "4387751111111111",
+            "expireDate": "1230",
+            "amount": "100",
+            "currency": "USD",
+            "cvv": "123",
+            "extendPayments": "false",
+            "contact": {
+              "firstName": "PMT  QA",
+              "lastName": "Tester",
+              "address": {
+                "address1": "ADDRESS",
+                "city": "CITY",
+                "stateCode": "FLL",
+                "postalCode": "33019",
+                "countryCode": "USA",
+                "countryName": "USA"
+              }
+            }
+          }
+        ]
+      }
+    }
+  ],
+  "courtesyHold": "true"
+}</t>
+  </si>
+  <si>
+    <t>PassengerId</t>
+  </si>
+  <si>
+    <t>paymentType</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1314,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1288,6 +1514,164 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F02EF3-E80B-894D-87F6-2117279164FC}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="41.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="L5" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48459B2C-EE78-4646-A73A-554FA75BC79A}">
   <dimension ref="A1:L5"/>
   <sheetViews>
@@ -1414,7 +1798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22F0CD2-7E13-4747-A8F3-299BFC59F5E0}">
   <dimension ref="A1:L5"/>
   <sheetViews>
@@ -1572,12 +1956,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C96469-A5D6-3348-9B82-7D1CB15C18C4}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1731,6 +2115,275 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF1A0CB-9D4A-BD47-9E0E-F7867F60B0A1}">
+  <dimension ref="A1:AB5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="23" width="14.1640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="26.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="26.83203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.6640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+    </row>
+    <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="AB4" s="3"/>
+    </row>
+    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="AB5" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D880AB4-1DE7-5946-BE4F-6F640D35FE1D}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -1814,7 +2467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723A855F-829B-4B5D-8211-25823ECB6C26}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -1970,12 +2623,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B3E2DA-9933-4B77-A7B4-7C59CEE54D22}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2314,12 +2967,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09718EF1-5D75-4972-9395-ACB737900D96}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2378,7 +3031,7 @@
         <v>60</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>62</v>
@@ -2404,7 +3057,7 @@
         <v>65</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>67</v>
@@ -2418,7 +3071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7BA175-0D7F-4BBD-B4FF-9DB63624C036}">
   <dimension ref="A1:J9"/>
   <sheetViews>
@@ -2734,7 +3387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE63EE0-2DBC-4407-96FB-89B2379A96F6}">
   <dimension ref="A1:J10"/>
   <sheetViews>
@@ -3082,7 +3735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -3211,162 +3864,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F02EF3-E80B-894D-87F6-2117279164FC}">
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="41.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="L5" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rccl-my.sharepoint.com/personal/charmainejaneelduayan_rcclapac_com/Documents/PMT/Git/RestructuredScript/TestingFolder/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:1_{1694E977-BA10-4750-9953-3E721AFEAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29DF176A-9474-6A47-B586-05C93B0D7588}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="13_ncr:1_{1694E977-BA10-4750-9953-3E721AFEAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC23DECC-EAD3-D941-AC53-FE9C539FADC3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GiftCards" sheetId="2" r:id="rId1"/>
@@ -2118,8 +2118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF1A0CB-9D4A-BD47-9E0E-F7867F60B0A1}">
   <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3:X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rccl-my.sharepoint.com/personal/charmainejaneelduayan_rcclapac_com/Documents/PMT/Git/RestructuredScript/TestingFolder/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="13_ncr:1_{1694E977-BA10-4750-9953-3E721AFEAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC23DECC-EAD3-D941-AC53-FE9C539FADC3}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="13_ncr:1_{1694E977-BA10-4750-9953-3E721AFEAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E59570C2-3754-124D-A607-8DD34AD4BA78}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GiftCards" sheetId="2" r:id="rId1"/>
-    <sheet name="Payment_Authorize" sheetId="13" r:id="rId2"/>
-    <sheet name="cardTokenization_Encrypt" sheetId="3" r:id="rId3"/>
-    <sheet name="cardTokenization_Generate" sheetId="8" r:id="rId4"/>
+    <sheet name="cardTokenization_Encrypt" sheetId="3" r:id="rId2"/>
+    <sheet name="cardTokenization_Generate" sheetId="8" r:id="rId3"/>
+    <sheet name="Payment_Authorize" sheetId="14" r:id="rId4"/>
     <sheet name="ScheduledPayment_Get" sheetId="4" r:id="rId5"/>
     <sheet name="ScheduledPayment_Add" sheetId="5" r:id="rId6"/>
     <sheet name="ScheduledPayment_GetEligibility" sheetId="6" r:id="rId7"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="157">
   <si>
     <t>TCDescription</t>
   </si>
@@ -973,6 +973,157 @@
   </si>
   <si>
     <t>paymentType</t>
+  </si>
+  <si>
+    <t>SELECT
+	SMBRND, 
+	SMSHIP, 
+	SUBSTR(ICSLMD.SMSDDT, 0, 0) || '20' || SUBSTR(ICSLMD.SMSDDT, 2, 2)|| '-' || SUBSTR(ICSLMD.SMSDDT, 4, 2)|| '-' || SUBSTR(ICSLMD.SMSDDT, 6, 2) AS SMSDDT, 
+	BHPKID,
+	CBCTCD, 
+	CBCBNO
+FROM 
+	ICSLMD 
+  	JOIN ICVCBD ON ICSLMD.SMSHIP = ICVCBD.CBSHIP AND ICSLMD.SMSDDT = ICVCBD.CBSDDT
+  	JOIN ICPKGD ON ICSLMD.SMITCD = ICPKGD.BHITCD
+  	JOIN DRDIDD ON ICSLMD.SMSHIP = DRDIDD.UFSHIP AND ICSLMD.SMSDDT = DRDIDD.UFSDDT
+ WHERE 
+ 	SMBRND = 'C'
+	AND SMSDDT &gt; Cast(Substr(Replace(Char(CURDATE() + 6 MONTH, ISO), '-', ''), 1) as Dec(8, 0))-19000000
+	AND ICVCBD.CBSTAT = 'AVL'
+	AND CBCBNO != 'GTY'
+	AND CBCABC = '2'
+	AND CBHNDA = ''
+	AND SMDSCD = 'O'
+	AND SMRSFG = 'Y'
+	AND SMINAF = 'Y'
+	AND SMSTAT != 'CX'
+	AND UFDTIM = 'OPEN'
+ORDER BY SMSDDT 
+	FETCH FIRST ROW ONLY</t>
+  </si>
+  <si>
+    <t>{
+  "header": {
+    "application": "celebritycriuses.com",
+    "brand": "${Brand}",
+    "domainId": "6",
+    "language": "en_US"
+  },
+  "countryCode": "USA",
+  "sailingInfo": {
+    "shipCode": "${ShipCode}",
+    "sailDate": "${SailDate}",
+    "packageCode": "${PackageId}",
+    "currencyCode": "USD"
+  },
+  "reservations": [
+    {
+      "cabin": {
+        "berthedCategoryCode": "${CategoryCode}",
+        "fareCode": "BESTRATE",
+        "pricedCategoryCode": "${CategoryCode}",
+        "waitListed": "false",
+        "accessible": "false",
+        "number": "${CabinNumber}"
+      },
+      "dining": [
+        {
+          "sitting": "U",
+          "sittingType": "OPEN",
+          "sittingInstance": "CEL SELECT"
+        }
+      ],
+      "gratuitiesPrepaid": "false",
+      "insurance": {
+        "code": "CRCR",
+        "optionIndicator": "false"
+      },
+      "fareQualifiers": {
+        "seniorReqd": "false",
+        "militaryReqd": "false",
+        "policeReqd": "false",
+        "fireFighterReqd": "false"
+      },
+      "guestDetails": [
+        {
+          "guestContact": {
+            "guestRefNumber": "0",
+            "personalInfo": {
+              "name": {
+                "title": "MS",
+                "firstName": "ESL One",
+                "lastName": "Tester"
+              },
+              "age": "55",
+              "birthDate": "1960-05-13",
+              "gender": "F",
+              "nationality": "USA"
+            },
+            "address": {
+              "address1": "addr1",
+              "city": "Miramar",
+              "stateCode": "FL",
+              "postalCode": "33029",
+              "countryName": "USA"
+            },
+            "email": "eslqa@rccl.com"
+          }
+        },
+        {
+          "guestContact": {
+            "guestRefNumber": "1",
+            "personalInfo": {
+              "name": {
+                "title": "MR",
+                "firstName": "ESL Two",
+                "lastName": "Tester"
+              },
+              "age": "55",
+              "birthDate": "1960-05-13",
+              "gender": "M",
+              "nationality": "USA"
+            },
+            "address": {
+              "address1": "addr1",
+              "city": "Miramar",
+              "stateCode": "NA",
+              "postalCode": "33029",
+              "countryName": "USA"
+            },
+            "email": "eslqa@rccl.com"
+          }
+        }
+      ],
+            "listOfCardPayments": {
+        "cardPayment": [
+          {
+            "cardType": "VA",
+            "cardToken": "4387751111111111",
+            "expireDate": "1230",
+            "amount": "100",
+            "currency": "USD",
+            "cvv": "123",
+            "extendPayments": "false",
+            "contact": {
+              "firstName": "PMT  QA",
+              "lastName": "Tester",
+              "address": {
+                "address1": "ADDRESS",
+                "city": "CITY",
+                "stateCode": "FLL",
+                "postalCode": "33019",
+                "countryCode": "USA",
+                "countryName": "USA"
+              }
+            }
+          }
+        ]
+      }
+    }
+  ],
+  "courtesyHold": "true"
+}</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1465,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="A1:XFD1048576"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1326,7 +1477,7 @@
     <col min="5" max="5" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="61.1640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -2115,280 +2266,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF1A0CB-9D4A-BD47-9E0E-F7867F60B0A1}">
-  <dimension ref="A1:AB5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3:X11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="23" width="14.1640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="26.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="26.83203125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.6640625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-    </row>
-    <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="AB4" s="3"/>
-    </row>
-    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="AB5" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D880AB4-1DE7-5946-BE4F-6F640D35FE1D}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="A1:XFD1048576"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2467,12 +2349,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723A855F-829B-4B5D-8211-25823ECB6C26}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2623,12 +2505,299 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D43AD2-71CB-1D43-8E1D-EC2E182B29CC}">
+  <dimension ref="A1:AB3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="26.83203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B3E2DA-9933-4B77-A7B4-7C59CEE54D22}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2711,7 +2880,7 @@
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>63</v>
@@ -2746,7 +2915,7 @@
         <v>66</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>63</v>
@@ -2972,7 +3141,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3034,7 +3203,7 @@
         <v>152</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>63</v>
@@ -3060,7 +3229,7 @@
         <v>152</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>63</v>
@@ -3073,10 +3242,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7BA175-0D7F-4BBD-B4FF-9DB63624C036}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3152,7 +3321,7 @@
         <v>61</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>85</v>
@@ -3184,7 +3353,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>86</v>
@@ -3380,6 +3549,11 @@
       </c>
       <c r="J9" s="3" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rccl-my.sharepoint.com/personal/charmainejaneelduayan_rcclapac_com/Documents/PMT/Git/RestructuredScript/TestingFolder/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="13_ncr:1_{1694E977-BA10-4750-9953-3E721AFEAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E59570C2-3754-124D-A607-8DD34AD4BA78}"/>
+  <xr:revisionPtr revIDLastSave="225" documentId="13_ncr:1_{1694E977-BA10-4750-9953-3E721AFEAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E7E292E-D544-4344-A0B6-C33B2D59D2EA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GiftCards" sheetId="2" r:id="rId1"/>
     <sheet name="cardTokenization_Encrypt" sheetId="3" r:id="rId2"/>
     <sheet name="cardTokenization_Generate" sheetId="8" r:id="rId3"/>
-    <sheet name="Payment_Authorize" sheetId="14" r:id="rId4"/>
-    <sheet name="ScheduledPayment_Get" sheetId="4" r:id="rId5"/>
-    <sheet name="ScheduledPayment_Add" sheetId="5" r:id="rId6"/>
-    <sheet name="ScheduledPayment_GetEligibility" sheetId="6" r:id="rId7"/>
-    <sheet name="Validations_Prevalidations&amp;Conf" sheetId="7" r:id="rId8"/>
-    <sheet name="Validations_ByCtryOrCurr" sheetId="1" r:id="rId9"/>
-    <sheet name="Wallet_Add" sheetId="9" r:id="rId10"/>
-    <sheet name="Wallet_Replace" sheetId="10" r:id="rId11"/>
-    <sheet name="Wallet_Update" sheetId="11" r:id="rId12"/>
-    <sheet name="Wallet_Delete" sheetId="12" r:id="rId13"/>
+    <sheet name="Payment_Authorize" sheetId="15" r:id="rId4"/>
+    <sheet name="Payment_Capture" sheetId="14" r:id="rId5"/>
+    <sheet name="ScheduledPayment_Get" sheetId="4" r:id="rId6"/>
+    <sheet name="ScheduledPayment_Add" sheetId="5" r:id="rId7"/>
+    <sheet name="ScheduledPayment_GetEligibility" sheetId="6" r:id="rId8"/>
+    <sheet name="Validations_Prevalidations&amp;Conf" sheetId="7" r:id="rId9"/>
+    <sheet name="Validations_ByCtryOrCurr" sheetId="1" r:id="rId10"/>
+    <sheet name="Wallet_Add" sheetId="9" r:id="rId11"/>
+    <sheet name="Wallet_Replace" sheetId="10" r:id="rId12"/>
+    <sheet name="Wallet_Update" sheetId="11" r:id="rId13"/>
+    <sheet name="Wallet_Delete" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="158">
   <si>
     <t>TCDescription</t>
   </si>
@@ -846,129 +847,6 @@
     <t>33027</t>
   </si>
   <si>
-    <t>{
-  "header": {
-    "application": "celebritycriuses.com",
-    "brand": "${Brand}",
-    "domainId": "6",
-    "language": "en_US"
-  },
-  "countryCode": "USA",
-  "sailingInfo": {
-    "shipCode": "${ShipCode}",
-    "sailDate": "${SailDate}",
-    "packageCode": "${PackageId}",
-    "currencyCode": "USD"
-  },
-  "reservations": [
-    {
-      "cabin": {
-        "berthedCategoryCode": "${CategoryCode}",
-        "fareCode": "BESTRATE",
-        "pricedCategoryCode": "${CategoryCode}",
-        "waitListed": "false",
-        "accessible": "false",
-        "number": "${CabinNumber}"
-      },
-      "dining": [
-        {
-          "sitting": "O",
-          "sittingType": "OPEN",
-          "sittingInstance": "CEL SELECT"
-        }
-      ],
-      "gratuitiesPrepaid": "false",
-      "insurance": {
-        "code": "CRCR",
-        "optionIndicator": "false"
-      },
-      "fareQualifiers": {
-        "seniorReqd": "false",
-        "militaryReqd": "false",
-        "policeReqd": "false",
-        "fireFighterReqd": "false"
-      },
-      "guestDetails": [
-        {
-          "guestContact": {
-            "guestRefNumber": "0",
-            "personalInfo": {
-              "name": {
-                "title": "MS",
-                "firstName": "ESL One",
-                "lastName": "Tester"
-              },
-              "age": "55",
-              "birthDate": "1960-05-13",
-              "gender": "F",
-              "nationality": "USA"
-            },
-            "address": {
-              "address1": "addr1",
-              "city": "Miramar",
-              "stateCode": "FL",
-              "postalCode": "33029",
-              "countryName": "USA"
-            },
-            "email": "eslqa@rccl.com"
-          }
-        },
-        {
-          "guestContact": {
-            "guestRefNumber": "1",
-            "personalInfo": {
-              "name": {
-                "title": "MR",
-                "firstName": "ESL Two",
-                "lastName": "Tester"
-              },
-              "age": "55",
-              "birthDate": "1960-05-13",
-              "gender": "M",
-              "nationality": "USA"
-            },
-            "address": {
-              "address1": "addr1",
-              "city": "Miramar",
-              "stateCode": "NA",
-              "postalCode": "33029",
-              "countryName": "USA"
-            },
-            "email": "eslqa@rccl.com"
-          }
-        }
-      ],
-            "listOfCardPayments": {
-        "cardPayment": [
-          {
-            "cardType": "VA",
-            "cardToken": "4387751111111111",
-            "expireDate": "1230",
-            "amount": "100",
-            "currency": "USD",
-            "cvv": "123",
-            "extendPayments": "false",
-            "contact": {
-              "firstName": "PMT  QA",
-              "lastName": "Tester",
-              "address": {
-                "address1": "ADDRESS",
-                "city": "CITY",
-                "stateCode": "FLL",
-                "postalCode": "33019",
-                "countryCode": "USA",
-                "countryName": "USA"
-              }
-            }
-          }
-        ]
-      }
-    }
-  ],
-  "courtesyHold": "true"
-}</t>
-  </si>
-  <si>
     <t>PassengerId</t>
   </si>
   <si>
@@ -1001,6 +879,9 @@
 	AND UFDTIM = 'OPEN'
 ORDER BY SMSDDT 
 	FETCH FIRST ROW ONLY</t>
+  </si>
+  <si>
+    <t>amount</t>
   </si>
   <si>
     <t>{
@@ -1052,7 +933,7 @@
             "personalInfo": {
               "name": {
                 "title": "MS",
-                "firstName": "ESL One",
+                "firstName": "PMT One",
                 "lastName": "Tester"
               },
               "age": "55",
@@ -1067,7 +948,7 @@
               "postalCode": "33029",
               "countryName": "USA"
             },
-            "email": "eslqa@rccl.com"
+            "email": "pmtqa@rccl.com"
           }
         },
         {
@@ -1076,7 +957,7 @@
             "personalInfo": {
               "name": {
                 "title": "MR",
-                "firstName": "ESL Two",
+                "firstName": "PMT Two",
                 "lastName": "Tester"
               },
               "age": "55",
@@ -1091,7 +972,7 @@
               "postalCode": "33029",
               "countryName": "USA"
             },
-            "email": "eslqa@rccl.com"
+            "email": "pmtqa@rccl.com"
           }
         }
       ],
@@ -1124,6 +1005,9 @@
   ],
   "courtesyHold": "true"
 }</t>
+  </si>
+  <si>
+    <t>CAPTURED</t>
   </si>
 </sst>
 </file>
@@ -1665,11 +1549,142 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F02EF3-E80B-894D-87F6-2117279164FC}">
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="A1:XFD1048576"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1822,7 +1837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48459B2C-EE78-4646-A73A-554FA75BC79A}">
   <dimension ref="A1:L5"/>
   <sheetViews>
@@ -1949,7 +1964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22F0CD2-7E13-4747-A8F3-299BFC59F5E0}">
   <dimension ref="A1:L5"/>
   <sheetViews>
@@ -2107,7 +2122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C96469-A5D6-3348-9B82-7D1CB15C18C4}">
   <dimension ref="A1:L5"/>
   <sheetViews>
@@ -2353,7 +2368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723A855F-829B-4B5D-8211-25823ECB6C26}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -2506,11 +2521,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D43AD2-71CB-1D43-8E1D-EC2E182B29CC}">
-  <dimension ref="A1:AB3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0359A5F1-241A-D64B-BCC9-E10E2CDE789F}">
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2529,7 +2544,7 @@
     <col min="12" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -2570,7 +2585,7 @@
         <v>133</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>103</v>
@@ -2599,23 +2614,20 @@
       <c r="W1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="X1" s="5" t="s">
-        <v>50</v>
+      <c r="X1" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z1" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="AA1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -2641,7 +2653,7 @@
         <v>51</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>140</v>
@@ -2686,22 +2698,19 @@
         <v>151</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -2727,7 +2736,7 @@
         <v>51</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>140</v>
@@ -2772,18 +2781,15 @@
         <v>151</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2793,11 +2799,78 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D43AD2-71CB-1D43-8E1D-EC2E182B29CC}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B3E2DA-9933-4B77-A7B4-7C59CEE54D22}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2877,10 +2950,10 @@
         <v>60</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>63</v>
@@ -2912,10 +2985,10 @@
         <v>65</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>63</v>
@@ -3136,12 +3209,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09718EF1-5D75-4972-9395-ACB737900D96}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3200,10 +3273,10 @@
         <v>60</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>63</v>
@@ -3226,10 +3299,10 @@
         <v>65</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>63</v>
@@ -3240,12 +3313,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7BA175-0D7F-4BBD-B4FF-9DB63624C036}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3318,10 +3391,10 @@
         <v>51</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>85</v>
@@ -3350,10 +3423,10 @@
         <v>51</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>86</v>
@@ -3561,7 +3634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE63EE0-2DBC-4407-96FB-89B2379A96F6}">
   <dimension ref="A1:J10"/>
   <sheetViews>
@@ -3907,135 +3980,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rccl-my.sharepoint.com/personal/charmainejaneelduayan_rcclapac_com/Documents/PMT/Git/RestructuredScript/TestingFolder/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="225" documentId="13_ncr:1_{1694E977-BA10-4750-9953-3E721AFEAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E7E292E-D544-4344-A0B6-C33B2D59D2EA}"/>
+  <xr:revisionPtr revIDLastSave="305" documentId="13_ncr:1_{1694E977-BA10-4750-9953-3E721AFEAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57B921FC-0675-B047-9482-97CD4A3DAB90}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GiftCards" sheetId="2" r:id="rId1"/>
@@ -18,27 +18,39 @@
     <sheet name="cardTokenization_Generate" sheetId="8" r:id="rId3"/>
     <sheet name="Payment_Authorize" sheetId="15" r:id="rId4"/>
     <sheet name="Payment_Capture" sheetId="14" r:id="rId5"/>
-    <sheet name="ScheduledPayment_Get" sheetId="4" r:id="rId6"/>
-    <sheet name="ScheduledPayment_Add" sheetId="5" r:id="rId7"/>
-    <sheet name="ScheduledPayment_GetEligibility" sheetId="6" r:id="rId8"/>
-    <sheet name="Validations_Prevalidations&amp;Conf" sheetId="7" r:id="rId9"/>
-    <sheet name="Validations_ByCtryOrCurr" sheetId="1" r:id="rId10"/>
-    <sheet name="Wallet_Add" sheetId="9" r:id="rId11"/>
-    <sheet name="Wallet_Replace" sheetId="10" r:id="rId12"/>
-    <sheet name="Wallet_Update" sheetId="11" r:id="rId13"/>
-    <sheet name="Wallet_Delete" sheetId="12" r:id="rId14"/>
+    <sheet name="ScheduledPayment_GetEligibility" sheetId="17" r:id="rId6"/>
+    <sheet name="ScheduledPayment_ConfirmWithReq" sheetId="16" r:id="rId7"/>
+    <sheet name="ScheduledPayment_Get" sheetId="4" r:id="rId8"/>
+    <sheet name="ScheduledPayment_Add" sheetId="5" r:id="rId9"/>
+    <sheet name="Validations_Prevalidations&amp;Conf" sheetId="7" r:id="rId10"/>
+    <sheet name="Validations_ByCtryOrCurr" sheetId="1" r:id="rId11"/>
+    <sheet name="Wallet_Add" sheetId="9" r:id="rId12"/>
+    <sheet name="Wallet_Replace" sheetId="10" r:id="rId13"/>
+    <sheet name="Wallet_Update" sheetId="11" r:id="rId14"/>
+    <sheet name="Wallet_Delete" sheetId="12" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="170">
   <si>
     <t>TCDescription</t>
   </si>
@@ -647,9 +659,6 @@
     <t>"isEligible": true,</t>
   </si>
   <si>
-    <t>You must enter a valid booking ID having numeric string between 1 and 9999999, inclusive.</t>
-  </si>
-  <si>
     <t>Validations</t>
   </si>
   <si>
@@ -666,9 +675,6 @@
   </si>
   <si>
     <t>USA-Invalid currency</t>
-  </si>
-  <si>
-    <t>GET_ELIGIBILITY</t>
   </si>
   <si>
     <t>Prevalidations&amp;Conf</t>
@@ -1008,6 +1014,48 @@
   </si>
   <si>
     <t>CAPTURED</t>
+  </si>
+  <si>
+    <t>addressTwo</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>scheduledDate</t>
+  </si>
+  <si>
+    <t>20240704</t>
+  </si>
+  <si>
+    <t>100.25</t>
+  </si>
+  <si>
+    <t>totalAmount</t>
+  </si>
+  <si>
+    <t>50.25</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>passengerId1</t>
+  </si>
+  <si>
+    <t>passengerId2</t>
+  </si>
+  <si>
+    <t>amount1</t>
+  </si>
+  <si>
+    <t>amount2</t>
+  </si>
+  <si>
+    <t>isEligible</t>
+  </si>
+  <si>
+    <t>"status": 200</t>
   </si>
 </sst>
 </file>
@@ -1549,6 +1597,354 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE63EE0-2DBC-4407-96FB-89B2379A96F6}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1598,10 +1994,10 @@
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>38</v>
@@ -1610,7 +2006,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -1619,15 +2015,15 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>24</v>
@@ -1636,7 +2032,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>3</v>
@@ -1645,15 +2041,15 @@
         <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>29</v>
@@ -1662,7 +2058,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>3</v>
@@ -1679,7 +2075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F02EF3-E80B-894D-87F6-2117279164FC}">
   <dimension ref="A1:L5"/>
   <sheetViews>
@@ -1713,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -1725,13 +2121,13 @@
         <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -1751,7 +2147,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>21</v>
@@ -1763,19 +2159,19 @@
         <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1786,13 +2182,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>18</v>
@@ -1801,19 +2197,19 @@
         <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1837,7 +2233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48459B2C-EE78-4646-A73A-554FA75BC79A}">
   <dimension ref="A1:L5"/>
   <sheetViews>
@@ -1872,10 +2268,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
@@ -1887,10 +2283,10 @@
         <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -1910,13 +2306,13 @@
         <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>18</v>
@@ -1925,16 +2321,16 @@
         <v>19</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1964,7 +2360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22F0CD2-7E13-4747-A8F3-299BFC59F5E0}">
   <dimension ref="A1:L5"/>
   <sheetViews>
@@ -1998,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -2010,13 +2406,13 @@
         <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -2036,7 +2432,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>21</v>
@@ -2048,19 +2444,19 @@
         <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2071,13 +2467,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>18</v>
@@ -2086,19 +2482,19 @@
         <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2122,7 +2518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C96469-A5D6-3348-9B82-7D1CB15C18C4}">
   <dimension ref="A1:L5"/>
   <sheetViews>
@@ -2156,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -2168,13 +2564,13 @@
         <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -2194,7 +2590,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>21</v>
@@ -2206,19 +2602,19 @@
         <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2229,13 +2625,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>18</v>
@@ -2244,19 +2640,19 @@
         <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2431,10 +2827,10 @@
         <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2457,10 +2853,10 @@
         <v>19</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2486,7 +2882,7 @@
         <v>33</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2512,7 +2908,7 @@
         <v>33</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2522,15 +2918,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0359A5F1-241A-D64B-BCC9-E10E2CDE789F}">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" style="3" customWidth="1"/>
@@ -2544,75 +2940,75 @@
     <col min="12" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="X1" s="4" t="s">
         <v>53</v>
@@ -2620,14 +3016,15 @@
       <c r="Y1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB1" s="4"/>
+    </row>
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -2638,25 +3035,25 @@
         <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>3</v>
@@ -2665,52 +3062,52 @@
         <v>4</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="X2" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -2721,25 +3118,25 @@
         <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>3</v>
@@ -2748,49 +3145,49 @@
         <v>4</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="X3" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2802,8 +3199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D43AD2-71CB-1D43-8E1D-EC2E182B29CC}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2825,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>54</v>
@@ -2848,16 +3245,16 @@
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2866,11 +3263,314 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A0C3C3-79E8-4C4C-A0A4-6463B25F2BAB}">
+  <dimension ref="A1:W3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16" width="9.1640625" style="1"/>
+    <col min="17" max="17" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+    </row>
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+    </row>
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73C8CAC-04FA-BA4D-9CDB-705D1EFFCB9E}">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16" width="9.1640625" style="1"/>
+    <col min="17" max="17" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B3E2DA-9933-4B77-A7B4-7C59CEE54D22}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2950,10 +3650,10 @@
         <v>60</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>63</v>
@@ -2985,10 +3685,10 @@
         <v>65</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>63</v>
@@ -3209,12 +3909,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09718EF1-5D75-4972-9395-ACB737900D96}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3273,10 +3973,10 @@
         <v>60</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>63</v>
@@ -3299,682 +3999,13 @@
         <v>65</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7BA175-0D7F-4BBD-B4FF-9DB63624C036}">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H10" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE63EE0-2DBC-4407-96FB-89B2379A96F6}">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rccl-my.sharepoint.com/personal/charmainejaneelduayan_rcclapac_com/Documents/PMT/Git/RestructuredScript/TestingFolder/Data Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rccl-my.sharepoint.com/personal/charmainejaneelduayan_rcclapac_com/Documents/PMT/Git/payment.web-utility-automation/payment.web-utility-automation/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="323" documentId="13_ncr:1_{1694E977-BA10-4750-9953-3E721AFEAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DDC9C8D-F018-8448-BE31-51CD51377346}"/>
+  <xr:revisionPtr revIDLastSave="324" documentId="13_ncr:1_{1694E977-BA10-4750-9953-3E721AFEAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EEF3C41-E441-F947-8D40-94CE3297353A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GiftCards" sheetId="2" r:id="rId1"/>
@@ -1128,10 +1128,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2082,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F02EF3-E80B-894D-87F6-2117279164FC}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2170,8 +2166,8 @@
       <c r="J2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>110</v>
+      <c r="K2" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>116</v>
@@ -2923,7 +2919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0359A5F1-241A-D64B-BCC9-E10E2CDE789F}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>

--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rccl-my.sharepoint.com/personal/charmainejaneelduayan_rcclapac_com/Documents/PMT/Git/payment.web-utility-automation/payment.web-utility-automation/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="324" documentId="13_ncr:1_{1694E977-BA10-4750-9953-3E721AFEAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EEF3C41-E441-F947-8D40-94CE3297353A}"/>
+  <xr:revisionPtr revIDLastSave="354" documentId="13_ncr:1_{1694E977-BA10-4750-9953-3E721AFEAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD4EA026-F475-3F49-ABF3-E087B0BBD2EE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="174">
   <si>
     <t>TCDescription</t>
   </si>
@@ -1025,9 +1025,6 @@
     <t>scheduledDate</t>
   </si>
   <si>
-    <t>20240704</t>
-  </si>
-  <si>
     <t>100.25</t>
   </si>
   <si>
@@ -1059,6 +1056,18 @@
   </si>
   <si>
     <t>690185323</t>
+  </si>
+  <si>
+    <t>4387751111111111</t>
+  </si>
+  <si>
+    <t>20241204</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>"cards"</t>
   </si>
 </sst>
 </file>
@@ -1128,6 +1137,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1600,7 +1613,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1678,8 +1691,8 @@
       <c r="I2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>90</v>
+      <c r="J2" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1710,8 +1723,8 @@
       <c r="I3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>90</v>
+      <c r="J3" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1870,8 +1883,8 @@
       <c r="I8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>90</v>
+      <c r="J8" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2079,7 +2092,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2149,7 +2162,7 @@
         <v>109</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>18</v>
@@ -2167,10 +2180,10 @@
         <v>111</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2522,7 +2535,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2592,7 +2605,7 @@
         <v>109</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>18</v>
@@ -3100,7 +3113,7 @@
         <v>152</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>116</v>
@@ -3183,7 +3196,7 @@
         <v>152</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>116</v>
@@ -3405,14 +3418,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73C8CAC-04FA-BA4D-9CDB-705D1EFFCB9E}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="9.1640625" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.1640625" style="1"/>
+    <col min="15" max="15" width="9.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" style="1"/>
     <col min="17" max="17" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9.1640625" style="1"/>
   </cols>
@@ -3464,19 +3482,19 @@
         <v>158</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="U1" s="4" t="s">
         <v>54</v>
@@ -3499,7 +3517,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>142</v>
@@ -3530,28 +3548,28 @@
         <v>84</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="Q2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>152</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>116</v>
@@ -3567,7 +3585,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3619,19 +3637,19 @@
         <v>158</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>54</v>
@@ -3682,28 +3700,28 @@
         <v>3</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>152</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>116</v>

--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rccl-my.sharepoint.com/personal/charmainejaneelduayan_rcclapac_com/Documents/PMT/Git/payment.web-utility-automation/payment.web-utility-automation/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="354" documentId="13_ncr:1_{1694E977-BA10-4750-9953-3E721AFEAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD4EA026-F475-3F49-ABF3-E087B0BBD2EE}"/>
+  <xr:revisionPtr revIDLastSave="398" documentId="13_ncr:1_{1694E977-BA10-4750-9953-3E721AFEAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61DE52B5-949F-0A4B-971A-032887C7D277}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GiftCards" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="177">
   <si>
     <t>TCDescription</t>
   </si>
@@ -1068,6 +1068,15 @@
   </si>
   <si>
     <t>"cards"</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>PY-0404</t>
   </si>
 </sst>
 </file>
@@ -2089,10 +2098,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F02EF3-E80B-894D-87F6-2117279164FC}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2200,10 +2209,10 @@
         <v>109</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>19</v>
@@ -2218,27 +2227,49 @@
         <v>111</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="L5" s="3"/>
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2247,10 +2278,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48459B2C-EE78-4646-A73A-554FA75BC79A}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2318,7 +2349,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>109</v>
@@ -2344,28 +2375,6 @@
       <c r="L2" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="L5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2377,7 +2386,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2532,10 +2541,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C96469-A5D6-3348-9B82-7D1CB15C18C4}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2623,7 +2632,7 @@
         <v>111</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>116</v>
@@ -2634,10 +2643,10 @@
         <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>109</v>
@@ -2661,27 +2670,11 @@
         <v>111</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="L5" s="3"/>
+        <v>176</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2776,8 +2769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723A855F-829B-4B5D-8211-25823ECB6C26}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2788,8 +2781,8 @@
     <col min="4" max="4" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="74.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -2932,8 +2925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0359A5F1-241A-D64B-BCC9-E10E2CDE789F}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2949,7 +2942,11 @@
     <col min="9" max="9" width="22.6640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="26.83203125" style="3" customWidth="1"/>
     <col min="11" max="11" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="3"/>
+    <col min="12" max="23" width="9.1640625" style="3"/>
+    <col min="24" max="24" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.1640625" style="3"/>
+    <col min="26" max="26" width="18.1640625" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3585,7 +3582,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="U1" sqref="U1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3737,7 +3734,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rccl-my.sharepoint.com/personal/charmainejaneelduayan_rcclapac_com/Documents/PMT/Git/payment.web-utility-automation/payment.web-utility-automation/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="398" documentId="13_ncr:1_{1694E977-BA10-4750-9953-3E721AFEAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61DE52B5-949F-0A4B-971A-032887C7D277}"/>
+  <xr:revisionPtr revIDLastSave="433" documentId="13_ncr:1_{1694E977-BA10-4750-9953-3E721AFEAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB2E3499-53ED-C64C-BEE9-D7C310472F6E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GiftCards" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="172">
   <si>
     <t>TCDescription</t>
   </si>
@@ -172,12 +172,6 @@
     <t>{
   "validationMessage": "The cardNumber specified did not pass mod10 check or is invalid format."
 }</t>
-  </si>
-  <si>
-    <t>balance</t>
-  </si>
-  <si>
-    <t>errorCode": "PY-1501"</t>
   </si>
   <si>
     <t>encryptedCard</t>
@@ -659,12 +653,6 @@
     <t>"isEligible": true,</t>
   </si>
   <si>
-    <t>Validations</t>
-  </si>
-  <si>
-    <t>PrevalidationsByCtryOrCurr</t>
-  </si>
-  <si>
     <t>USA-USD</t>
   </si>
   <si>
@@ -675,9 +663,6 @@
   </si>
   <si>
     <t>USA-Invalid currency</t>
-  </si>
-  <si>
-    <t>Prevalidations&amp;Conf</t>
   </si>
   <si>
     <t>Old booking</t>
@@ -1083,7 +1068,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1095,6 +1080,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1120,7 +1113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1131,6 +1124,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1415,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DE72FD-B2DC-F14E-AE74-63292B6A77A1}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1431,40 +1425,36 @@
     <col min="6" max="6" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="61.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -1487,13 +1477,10 @@
         <v>20</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1518,11 +1505,8 @@
       <c r="H3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1547,11 +1531,8 @@
       <c r="H4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1576,11 +1557,8 @@
       <c r="H5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -1604,9 +1582,6 @@
       </c>
       <c r="H6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1619,28 +1594,26 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE63EE0-2DBC-4407-96FB-89B2379A96F6}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
@@ -1657,97 +1630,79 @@
         <v>49</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>51</v>
+      <c r="G3" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>68</v>
@@ -1756,208 +1711,166 @@
         <v>69</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>95</v>
+        <v>69</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1967,27 +1880,25 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
@@ -1998,96 +1909,72 @@
         <v>47</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2101,7 +1988,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="L1" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2120,40 +2007,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="H1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2168,10 +2055,10 @@
         <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>18</v>
@@ -2180,19 +2067,19 @@
         <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2203,13 +2090,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>19</v>
@@ -2218,19 +2105,19 @@
         <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="K3" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2241,13 +2128,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>18</v>
@@ -2256,19 +2143,19 @@
         <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2281,7 +2168,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="L1" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2301,40 +2188,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2352,10 +2239,10 @@
         <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>18</v>
@@ -2364,16 +2251,16 @@
         <v>19</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2273,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2405,40 +2292,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="H1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2453,7 +2340,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>21</v>
@@ -2465,19 +2352,19 @@
         <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2488,13 +2375,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>18</v>
@@ -2503,19 +2390,19 @@
         <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="K3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2544,7 +2431,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2563,40 +2450,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="H1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2611,10 +2498,10 @@
         <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>18</v>
@@ -2623,19 +2510,19 @@
         <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2649,10 +2536,10 @@
         <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>18</v>
@@ -2661,19 +2548,19 @@
         <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="K3" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2683,10 +2570,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D880AB4-1DE7-5946-BE4F-6F640D35FE1D}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2696,31 +2583,27 @@
     <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -2731,16 +2614,13 @@
         <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -2754,9 +2634,6 @@
         <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2767,10 +2644,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723A855F-829B-4B5D-8211-25823ECB6C26}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2782,37 +2659,33 @@
     <col min="5" max="5" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="77.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="74.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -2823,7 +2696,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -2832,13 +2705,10 @@
         <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -2858,13 +2728,10 @@
         <v>19</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -2875,7 +2742,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
@@ -2886,11 +2753,8 @@
       <c r="G4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -2901,7 +2765,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -2911,9 +2775,6 @@
       </c>
       <c r="G5" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2925,8 +2786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0359A5F1-241A-D64B-BCC9-E10E2CDE789F}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2942,11 +2803,11 @@
     <col min="9" max="9" width="22.6640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="26.83203125" style="3" customWidth="1"/>
     <col min="11" max="11" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="23" width="9.1640625" style="3"/>
-    <col min="24" max="24" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.1640625" style="3"/>
-    <col min="26" max="26" width="18.1640625" style="3" customWidth="1"/>
-    <col min="27" max="16384" width="9.1640625" style="3"/>
+    <col min="12" max="24" width="9.1640625" style="3"/>
+    <col min="25" max="25" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.1640625" style="3"/>
+    <col min="27" max="27" width="18.1640625" style="3" customWidth="1"/>
+    <col min="28" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2960,40 +2821,40 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="L1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="N1" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>16</v>
@@ -3002,34 +2863,34 @@
         <v>15</v>
       </c>
       <c r="R1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="X1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="AB1" s="4"/>
     </row>
@@ -3044,25 +2905,25 @@
         <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>3</v>
@@ -3071,49 +2932,49 @@
         <v>4</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="U2" s="2" t="s">
+      <c r="X2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>116</v>
+      <c r="AA2" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3127,25 +2988,25 @@
         <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>3</v>
@@ -3154,49 +3015,49 @@
         <v>4</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="U3" s="2" t="s">
+      <c r="X3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z3" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>116</v>
+      <c r="AA3" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3206,10 +3067,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D43AD2-71CB-1D43-8E1D-EC2E182B29CC}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3220,30 +3081,27 @@
     <col min="4" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>153</v>
+      <c r="D1" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -3254,16 +3112,13 @@
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3294,25 +3149,25 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>10</v>
@@ -3343,25 +3198,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -3385,25 +3240,25 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3434,7 +3289,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>5</v>
@@ -3452,49 +3307,49 @@
         <v>15</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="S1" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="V1" s="4" t="s">
         <v>10</v>
@@ -3514,62 +3369,62 @@
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="T2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="W2" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3592,7 +3447,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>5</v>
@@ -3610,46 +3465,46 @@
         <v>15</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="R1" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U1" s="4" t="s">
         <v>10</v>
@@ -3669,59 +3524,59 @@
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3731,7 +3586,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B3E2DA-9933-4B77-A7B4-7C59CEE54D22}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1:L1"/>
@@ -3753,47 +3608,50 @@
     <col min="12" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>38</v>
@@ -3802,33 +3660,33 @@
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>24</v>
@@ -3837,33 +3695,33 @@
         <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>29</v>
@@ -3872,33 +3730,33 @@
         <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>31</v>
@@ -3907,33 +3765,33 @@
         <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>35</v>
@@ -3942,130 +3800,130 @@
         <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rccl-my.sharepoint.com/personal/charmainejaneelduayan_rcclapac_com/Documents/PMT/Git/payment.web-utility-automation/payment.web-utility-automation/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="433" documentId="13_ncr:1_{1694E977-BA10-4750-9953-3E721AFEAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB2E3499-53ED-C64C-BEE9-D7C310472F6E}"/>
+  <xr:revisionPtr revIDLastSave="446" documentId="13_ncr:1_{1694E977-BA10-4750-9953-3E721AFEAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D26CFA9-C0DF-E24D-8F85-7086889C08AA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GiftCards" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="172">
   <si>
     <t>TCDescription</t>
   </si>
@@ -383,32 +383,6 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">	SELECT
-		SMBRND, 
-		SMSHIP, 
-		SUBSTR(ICSLMD.SMSDDT, 0, 0) || '20' || SUBSTR(ICSLMD.SMSDDT, 2, 2)|| '-' || SUBSTR(ICSLMD.SMSDDT, 4, 2)|| '-' || SUBSTR(ICSLMD.SMSDDT, 6, 2) AS SMSDDT, 
-		BHPKID,
-		CBCTCD, 
-		CBCBNO
-	FROM 
-		ICSLMD 
-	  	JOIN ICVCBD ON ICSLMD.SMSHIP = ICVCBD.CBSHIP AND ICSLMD.SMSDDT = ICVCBD.CBSDDT
-	  	JOIN ICPKGD ON ICSLMD.SMITCD = ICPKGD.BHITCD
-	 WHERE 
-	 	SMBRND = 'C'
-		AND SMSDDT &gt; Cast(Substr(Replace(Char(CURDATE() + 6 MONTH, ISO), '-', ''), 1) as Dec(8, 0))-19000000
-		AND ICVCBD.CBSTAT = 'AVL'
-		AND CBCBNO != 'GTY'
-		AND CBCABC = '2'
-		AND CBHNDA = ''
-		AND SMDSCD = 'O'
-		AND SMRSFG = 'Y'
-		AND SMINAF = 'Y'
-		AND SMSTAT != 'CX'
-	ORDER BY SMSDDT 
-		FETCH FIRST ROW ONLY</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -570,32 +544,6 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">	SELECT
-		SMBRND, 
-		SMSHIP, 
-		SUBSTR(ICSLMD.SMSDDT, 0, 0) || '20' || SUBSTR(ICSLMD.SMSDDT, 2, 2)|| '-' || SUBSTR(ICSLMD.SMSDDT, 4, 2)|| '-' || SUBSTR(ICSLMD.SMSDDT, 6, 2) AS SMSDDT, 
-		BHPKID,
-		CBCTCD, 
-		CBCBNO
-	FROM 
-		ICSLMD 
-	  	JOIN ICVCBD ON ICSLMD.SMSHIP = ICVCBD.CBSHIP AND ICSLMD.SMSDDT = ICVCBD.CBSDDT
-	  	JOIN ICPKGD ON ICSLMD.SMITCD = ICPKGD.BHITCD
-	 WHERE 
-	 	SMBRND = 'R'
-		AND SMSDDT &gt; Cast(Substr(Replace(Char(CURDATE() + 6 MONTH, ISO), '-', ''), 1) as Dec(8, 0))-19000000
-		AND ICVCBD.CBSTAT = 'AVL'
-		AND CBCBNO != 'GTY'
-		AND CBCABC = '2'
-		AND CBHNDA = ''
-		AND SMDSCD = 'O'
-		AND SMRSFG = 'Y'
-		AND SMINAF = 'Y'
-		AND SMSTAT != 'CX'
-	ORDER BY SMSDDT 
-		FETCH FIRST ROW ONLY</t>
-  </si>
-  <si>
     <t>BookingId = 0</t>
   </si>
   <si>
@@ -836,9 +784,6 @@
   </si>
   <si>
     <t>33027</t>
-  </si>
-  <si>
-    <t>PassengerId</t>
   </si>
   <si>
     <t>paymentType</t>
@@ -1062,6 +1007,39 @@
   </si>
   <si>
     <t>PY-0404</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>SELECT
+		SMBRND, 
+		SMSHIP, 
+		SUBSTR(ICSLMD.SMSDDT, 0, 0) || '20' || SUBSTR(ICSLMD.SMSDDT, 2, 2)|| '-' || SUBSTR(ICSLMD.SMSDDT, 4, 2)|| '-' || SUBSTR(ICSLMD.SMSDDT, 6, 2) AS SMSDDT, 
+		BHPKID,
+		CBCTCD, 
+		CBCBNO
+	FROM 
+		ICSLMD 
+	  	JOIN ICVCBD ON ICSLMD.SMSHIP = ICVCBD.CBSHIP AND ICSLMD.SMSDDT = ICVCBD.CBSDDT
+	  	JOIN ICPKGD ON ICSLMD.SMITCD = ICPKGD.BHITCD
+	 WHERE 
+	 	SMBRND = 'C'
+		AND SMSDDT &gt; Cast(Substr(Replace(Char(CURDATE() + 6 MONTH, ISO), '-', ''), 1) as Dec(8, 0))-19000000
+		AND ICVCBD.CBSTAT = 'AVL'
+		AND CBCBNO != 'GTY'
+		AND CBCABC = '2'
+		AND CBHNDA = ''
+		AND SMDSCD = 'O'
+		AND SMRSFG = 'Y'
+		AND SMINAF = 'Y'
+		AND SMSTAT != 'CX'
+		AND SMRSST != 'I'
+	ORDER BY SMSDDT 
+		FETCH FIRST ROW ONLY</t>
+  </si>
+  <si>
+    <t>PassengerId1</t>
   </si>
 </sst>
 </file>
@@ -1597,7 +1575,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1659,10 +1637,10 @@
         <v>59</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1673,7 +1651,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>57</v>
@@ -1682,13 +1660,13 @@
         <v>49</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1699,22 +1677,22 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1725,22 +1703,22 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1751,126 +1729,126 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1926,7 +1904,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -1935,7 +1913,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1946,7 +1924,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1955,7 +1933,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1966,7 +1944,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -2017,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>14</v>
@@ -2029,13 +2007,13 @@
         <v>16</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>10</v>
@@ -2055,10 +2033,10 @@
         <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>18</v>
@@ -2067,19 +2045,19 @@
         <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="L2" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2090,13 +2068,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>19</v>
@@ -2105,19 +2083,19 @@
         <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2128,13 +2106,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>18</v>
@@ -2143,19 +2121,19 @@
         <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2198,10 +2176,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>14</v>
@@ -2213,10 +2191,10 @@
         <v>16</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>10</v>
@@ -2239,10 +2217,10 @@
         <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>18</v>
@@ -2251,16 +2229,16 @@
         <v>19</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2302,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>14</v>
@@ -2314,13 +2292,13 @@
         <v>16</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>10</v>
@@ -2340,7 +2318,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>21</v>
@@ -2352,19 +2330,19 @@
         <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2375,13 +2353,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>18</v>
@@ -2390,19 +2368,19 @@
         <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2460,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>14</v>
@@ -2472,13 +2450,13 @@
         <v>16</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>10</v>
@@ -2498,10 +2476,10 @@
         <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>18</v>
@@ -2510,19 +2488,19 @@
         <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2536,10 +2514,10 @@
         <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>18</v>
@@ -2548,19 +2526,19 @@
         <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2570,10 +2548,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D880AB4-1DE7-5946-BE4F-6F640D35FE1D}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2637,6 +2615,11 @@
         <v>42</v>
       </c>
     </row>
+    <row r="23" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2647,7 +2630,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2705,7 +2688,7 @@
         <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2728,7 +2711,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2786,8 +2769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0359A5F1-241A-D64B-BCC9-E10E2CDE789F}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2805,7 +2788,7 @@
     <col min="11" max="11" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="24" width="9.1640625" style="3"/>
     <col min="25" max="25" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.1640625" style="3"/>
+    <col min="26" max="26" width="23" style="3" customWidth="1"/>
     <col min="27" max="27" width="18.1640625" style="3" customWidth="1"/>
     <col min="28" max="16384" width="9.1640625" style="3"/>
   </cols>
@@ -2821,40 +2804,40 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="N1" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>16</v>
@@ -2863,22 +2846,22 @@
         <v>15</v>
       </c>
       <c r="R1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="X1" s="4" t="s">
         <v>48</v>
@@ -2905,25 +2888,25 @@
         <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>3</v>
@@ -2932,49 +2915,49 @@
         <v>4</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2988,25 +2971,25 @@
         <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>3</v>
@@ -3015,49 +2998,49 @@
         <v>4</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>57</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3069,8 +3052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D43AD2-71CB-1D43-8E1D-EC2E182B29CC}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3092,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>52</v>
@@ -3112,13 +3095,13 @@
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3207,16 +3190,16 @@
         <v>49</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -3240,7 +3223,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>57</v>
@@ -3249,16 +3232,16 @@
         <v>49</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3307,46 +3290,46 @@
         <v>15</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="U1" s="4" t="s">
         <v>52</v>
@@ -3369,62 +3352,62 @@
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="U2" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3465,43 +3448,43 @@
         <v>15</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>52</v>
@@ -3524,59 +3507,59 @@
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="T2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="V2" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3672,13 +3655,13 @@
         <v>58</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3695,7 +3678,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>57</v>
@@ -3704,16 +3687,16 @@
         <v>49</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3730,25 +3713,25 @@
         <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3765,25 +3748,25 @@
         <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3800,25 +3783,25 @@
         <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3829,31 +3812,31 @@
         <v>55</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="I7" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3864,31 +3847,31 @@
         <v>55</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="I8" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3899,31 +3882,31 @@
         <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
